--- a/BishoujoAcademy/Resource/src/excle/StoryMap.xlsx
+++ b/BishoujoAcademy/Resource/src/excle/StoryMap.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>编号</t>
   </si>
@@ -31,9 +31,6 @@
     <t>战争迷雾开关</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>mapImage</t>
   </si>
   <si>
-    <t>FogLayer</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -68,6 +62,45 @@
   </si>
   <si>
     <t>世界1-车站</t>
+  </si>
+  <si>
+    <t>scene/test_map_001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene/test_map_002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene/test_map_003.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene/test_map_004.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene/test_map_005.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scene/test_map_006.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fogLayer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始地图标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>startMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -124,11 +157,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,22 +469,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.25" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="23.875" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -461,123 +499,198 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>10101</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C4" s="3">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10102</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10000</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="3">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10103</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="3">
+        <v>101</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>10104</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>10105</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="3">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>10106</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" s="3">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
